--- a/data/136/BOI/Other primary income and secondary income and capital account_historical.xlsx
+++ b/data/136/BOI/Other primary income and secondary income and capital account_historical.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Other primary income and secon" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,695 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="228">
-  <si>
-    <t>1970-Q1</t>
-  </si>
-  <si>
-    <t>1970-Q2</t>
-  </si>
-  <si>
-    <t>1970-Q3</t>
-  </si>
-  <si>
-    <t>1970-Q4</t>
-  </si>
-  <si>
-    <t>1971-Q1</t>
-  </si>
-  <si>
-    <t>1971-Q2</t>
-  </si>
-  <si>
-    <t>1971-Q3</t>
-  </si>
-  <si>
-    <t>1971-Q4</t>
-  </si>
-  <si>
-    <t>1972-Q1</t>
-  </si>
-  <si>
-    <t>1972-Q2</t>
-  </si>
-  <si>
-    <t>1972-Q3</t>
-  </si>
-  <si>
-    <t>1972-Q4</t>
-  </si>
-  <si>
-    <t>1973-Q1</t>
-  </si>
-  <si>
-    <t>1973-Q2</t>
-  </si>
-  <si>
-    <t>1973-Q3</t>
-  </si>
-  <si>
-    <t>1973-Q4</t>
-  </si>
-  <si>
-    <t>1974-Q1</t>
-  </si>
-  <si>
-    <t>1974-Q2</t>
-  </si>
-  <si>
-    <t>1974-Q3</t>
-  </si>
-  <si>
-    <t>1974-Q4</t>
-  </si>
-  <si>
-    <t>1975-Q1</t>
-  </si>
-  <si>
-    <t>1975-Q2</t>
-  </si>
-  <si>
-    <t>1975-Q3</t>
-  </si>
-  <si>
-    <t>1975-Q4</t>
-  </si>
-  <si>
-    <t>1976-Q1</t>
-  </si>
-  <si>
-    <t>1976-Q2</t>
-  </si>
-  <si>
-    <t>1976-Q3</t>
-  </si>
-  <si>
-    <t>1976-Q4</t>
-  </si>
-  <si>
-    <t>1977-Q1</t>
-  </si>
-  <si>
-    <t>1977-Q2</t>
-  </si>
-  <si>
-    <t>1977-Q3</t>
-  </si>
-  <si>
-    <t>1977-Q4</t>
-  </si>
-  <si>
-    <t>1978-Q1</t>
-  </si>
-  <si>
-    <t>1978-Q2</t>
-  </si>
-  <si>
-    <t>1978-Q3</t>
-  </si>
-  <si>
-    <t>1978-Q4</t>
-  </si>
-  <si>
-    <t>1979-Q1</t>
-  </si>
-  <si>
-    <t>1979-Q2</t>
-  </si>
-  <si>
-    <t>1979-Q3</t>
-  </si>
-  <si>
-    <t>1979-Q4</t>
-  </si>
-  <si>
-    <t>1980-Q1</t>
-  </si>
-  <si>
-    <t>1980-Q2</t>
-  </si>
-  <si>
-    <t>1980-Q3</t>
-  </si>
-  <si>
-    <t>1980-Q4</t>
-  </si>
-  <si>
-    <t>1981-Q1</t>
-  </si>
-  <si>
-    <t>1981-Q2</t>
-  </si>
-  <si>
-    <t>1981-Q3</t>
-  </si>
-  <si>
-    <t>1981-Q4</t>
-  </si>
-  <si>
-    <t>1982-Q1</t>
-  </si>
-  <si>
-    <t>1982-Q2</t>
-  </si>
-  <si>
-    <t>1982-Q3</t>
-  </si>
-  <si>
-    <t>1982-Q4</t>
-  </si>
-  <si>
-    <t>1983-Q1</t>
-  </si>
-  <si>
-    <t>1983-Q2</t>
-  </si>
-  <si>
-    <t>1983-Q3</t>
-  </si>
-  <si>
-    <t>1983-Q4</t>
-  </si>
-  <si>
-    <t>1984-Q1</t>
-  </si>
-  <si>
-    <t>1984-Q2</t>
-  </si>
-  <si>
-    <t>1984-Q3</t>
-  </si>
-  <si>
-    <t>1984-Q4</t>
-  </si>
-  <si>
-    <t>1985-Q1</t>
-  </si>
-  <si>
-    <t>1985-Q2</t>
-  </si>
-  <si>
-    <t>1985-Q3</t>
-  </si>
-  <si>
-    <t>1985-Q4</t>
-  </si>
-  <si>
-    <t>1986-Q1</t>
-  </si>
-  <si>
-    <t>1986-Q2</t>
-  </si>
-  <si>
-    <t>1986-Q3</t>
-  </si>
-  <si>
-    <t>1986-Q4</t>
-  </si>
-  <si>
-    <t>1987-Q1</t>
-  </si>
-  <si>
-    <t>1987-Q2</t>
-  </si>
-  <si>
-    <t>1987-Q3</t>
-  </si>
-  <si>
-    <t>1987-Q4</t>
-  </si>
-  <si>
-    <t>1988-Q1</t>
-  </si>
-  <si>
-    <t>1988-Q2</t>
-  </si>
-  <si>
-    <t>1988-Q3</t>
-  </si>
-  <si>
-    <t>1988-Q4</t>
-  </si>
-  <si>
-    <t>1989-Q1</t>
-  </si>
-  <si>
-    <t>1989-Q2</t>
-  </si>
-  <si>
-    <t>1989-Q3</t>
-  </si>
-  <si>
-    <t>1989-Q4</t>
-  </si>
-  <si>
-    <t>1990-Q1</t>
-  </si>
-  <si>
-    <t>1990-Q2</t>
-  </si>
-  <si>
-    <t>1990-Q3</t>
-  </si>
-  <si>
-    <t>1990-Q4</t>
-  </si>
-  <si>
-    <t>1991-Q1</t>
-  </si>
-  <si>
-    <t>1991-Q2</t>
-  </si>
-  <si>
-    <t>1991-Q3</t>
-  </si>
-  <si>
-    <t>1991-Q4</t>
-  </si>
-  <si>
-    <t>1992-Q1</t>
-  </si>
-  <si>
-    <t>1992-Q2</t>
-  </si>
-  <si>
-    <t>1992-Q3</t>
-  </si>
-  <si>
-    <t>1992-Q4</t>
-  </si>
-  <si>
-    <t>1993-Q1</t>
-  </si>
-  <si>
-    <t>1993-Q2</t>
-  </si>
-  <si>
-    <t>1993-Q3</t>
-  </si>
-  <si>
-    <t>1993-Q4</t>
-  </si>
-  <si>
-    <t>1994-Q1</t>
-  </si>
-  <si>
-    <t>1994-Q2</t>
-  </si>
-  <si>
-    <t>1994-Q3</t>
-  </si>
-  <si>
-    <t>1994-Q4</t>
-  </si>
-  <si>
-    <t>1995-Q1</t>
-  </si>
-  <si>
-    <t>1995-Q2</t>
-  </si>
-  <si>
-    <t>1995-Q3</t>
-  </si>
-  <si>
-    <t>1995-Q4</t>
-  </si>
-  <si>
-    <t>1996-Q1</t>
-  </si>
-  <si>
-    <t>1996-Q2</t>
-  </si>
-  <si>
-    <t>1996-Q3</t>
-  </si>
-  <si>
-    <t>1996-Q4</t>
-  </si>
-  <si>
-    <t>1997-Q1</t>
-  </si>
-  <si>
-    <t>1997-Q2</t>
-  </si>
-  <si>
-    <t>1997-Q3</t>
-  </si>
-  <si>
-    <t>1997-Q4</t>
-  </si>
-  <si>
-    <t>1998-Q1</t>
-  </si>
-  <si>
-    <t>1998-Q2</t>
-  </si>
-  <si>
-    <t>1998-Q3</t>
-  </si>
-  <si>
-    <t>1998-Q4</t>
-  </si>
-  <si>
-    <t>1999-Q1</t>
-  </si>
-  <si>
-    <t>1999-Q2</t>
-  </si>
-  <si>
-    <t>1999-Q3</t>
-  </si>
-  <si>
-    <t>1999-Q4</t>
-  </si>
-  <si>
-    <t>2000-Q1</t>
-  </si>
-  <si>
-    <t>2000-Q2</t>
-  </si>
-  <si>
-    <t>2000-Q3</t>
-  </si>
-  <si>
-    <t>2000-Q4</t>
-  </si>
-  <si>
-    <t>2001-Q1</t>
-  </si>
-  <si>
-    <t>2001-Q2</t>
-  </si>
-  <si>
-    <t>2001-Q3</t>
-  </si>
-  <si>
-    <t>2001-Q4</t>
-  </si>
-  <si>
-    <t>2002-Q1</t>
-  </si>
-  <si>
-    <t>2002-Q2</t>
-  </si>
-  <si>
-    <t>2002-Q3</t>
-  </si>
-  <si>
-    <t>2002-Q4</t>
-  </si>
-  <si>
-    <t>2003-Q1</t>
-  </si>
-  <si>
-    <t>2003-Q2</t>
-  </si>
-  <si>
-    <t>2003-Q3</t>
-  </si>
-  <si>
-    <t>2003-Q4</t>
-  </si>
-  <si>
-    <t>2004-Q1</t>
-  </si>
-  <si>
-    <t>2004-Q2</t>
-  </si>
-  <si>
-    <t>2004-Q3</t>
-  </si>
-  <si>
-    <t>2004-Q4</t>
-  </si>
-  <si>
-    <t>2005-Q1</t>
-  </si>
-  <si>
-    <t>2005-Q2</t>
-  </si>
-  <si>
-    <t>2005-Q3</t>
-  </si>
-  <si>
-    <t>2005-Q4</t>
-  </si>
-  <si>
-    <t>2006-Q1</t>
-  </si>
-  <si>
-    <t>2006-Q2</t>
-  </si>
-  <si>
-    <t>2006-Q3</t>
-  </si>
-  <si>
-    <t>2006-Q4</t>
-  </si>
-  <si>
-    <t>2007-Q1</t>
-  </si>
-  <si>
-    <t>2007-Q2</t>
-  </si>
-  <si>
-    <t>2007-Q3</t>
-  </si>
-  <si>
-    <t>2007-Q4</t>
-  </si>
-  <si>
-    <t>2008-Q1</t>
-  </si>
-  <si>
-    <t>2008-Q2</t>
-  </si>
-  <si>
-    <t>2008-Q3</t>
-  </si>
-  <si>
-    <t>2008-Q4</t>
-  </si>
-  <si>
-    <t>2009-Q1</t>
-  </si>
-  <si>
-    <t>2009-Q2</t>
-  </si>
-  <si>
-    <t>2009-Q3</t>
-  </si>
-  <si>
-    <t>2009-Q4</t>
-  </si>
-  <si>
-    <t>2010-Q1</t>
-  </si>
-  <si>
-    <t>2010-Q2</t>
-  </si>
-  <si>
-    <t>2010-Q3</t>
-  </si>
-  <si>
-    <t>2010-Q4</t>
-  </si>
-  <si>
-    <t>2011-Q1</t>
-  </si>
-  <si>
-    <t>2011-Q2</t>
-  </si>
-  <si>
-    <t>2011-Q3</t>
-  </si>
-  <si>
-    <t>2011-Q4</t>
-  </si>
-  <si>
-    <t>2012-Q1</t>
-  </si>
-  <si>
-    <t>2012-Q2</t>
-  </si>
-  <si>
-    <t>2012-Q3</t>
-  </si>
-  <si>
-    <t>2012-Q4</t>
-  </si>
-  <si>
-    <t>2013-Q1</t>
-  </si>
-  <si>
-    <t>2013-Q2</t>
-  </si>
-  <si>
-    <t>2013-Q3</t>
-  </si>
-  <si>
-    <t>2013-Q4</t>
-  </si>
-  <si>
-    <t>2014-Q1</t>
-  </si>
-  <si>
-    <t>2014-Q2</t>
-  </si>
-  <si>
-    <t>2014-Q3</t>
-  </si>
-  <si>
-    <t>2014-Q4</t>
-  </si>
-  <si>
-    <t>2015-Q1</t>
-  </si>
-  <si>
-    <t>2015-Q2</t>
-  </si>
-  <si>
-    <t>2015-Q3</t>
-  </si>
-  <si>
-    <t>2015-Q4</t>
-  </si>
-  <si>
-    <t>2016-Q1</t>
-  </si>
-  <si>
-    <t>2016-Q2</t>
-  </si>
-  <si>
-    <t>2016-Q3</t>
-  </si>
-  <si>
-    <t>2016-Q4</t>
-  </si>
-  <si>
-    <t>2017-Q1</t>
-  </si>
-  <si>
-    <t>2017-Q2</t>
-  </si>
-  <si>
-    <t>2017-Q3</t>
-  </si>
-  <si>
-    <t>2017-Q4</t>
-  </si>
-  <si>
-    <t>2018-Q1</t>
-  </si>
-  <si>
-    <t>2018-Q2</t>
-  </si>
-  <si>
-    <t>2018-Q3</t>
-  </si>
-  <si>
-    <t>2018-Q4</t>
-  </si>
-  <si>
-    <t>2019-Q1</t>
-  </si>
-  <si>
-    <t>2019-Q2</t>
-  </si>
-  <si>
-    <t>2019-Q3</t>
-  </si>
-  <si>
-    <t>2019-Q4</t>
-  </si>
-  <si>
-    <t>2020-Q1</t>
-  </si>
-  <si>
-    <t>2020-Q2</t>
-  </si>
-  <si>
-    <t>2020-Q3</t>
-  </si>
-  <si>
-    <t>2020-Q4</t>
-  </si>
-  <si>
-    <t>2021-Q1</t>
-  </si>
-  <si>
-    <t>2021-Q2</t>
-  </si>
-  <si>
-    <t>2021-Q3</t>
-  </si>
-  <si>
-    <t>BOP - Balances - Capital account: gross acquisitions/disposal of nonproduced nonfinancial assets - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Balances - Secondary income: of which: workers' remittances - Other sectors than General government</t>
-  </si>
-  <si>
-    <t>BOP - Balances - Capital account: transfers - Other sectors than General government</t>
-  </si>
-  <si>
-    <t>BOP - Balances - Secondary income - Other sectors than General government</t>
-  </si>
-  <si>
-    <t>BOP - Balances - Capital account: transfers - General government</t>
-  </si>
-  <si>
-    <t>BOP - Balances - Secondary income - General government</t>
-  </si>
-  <si>
-    <t>BOP - Balances - Capital account: transfers; of which: involving the EU institutions - General government</t>
-  </si>
-  <si>
-    <t>BOP - Credits - Capital account: gross acquisitions/disposal of nonproduced nonfinancial assets - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Credits - Secondary income: of which: workers' remittances - Other sectors than General government</t>
-  </si>
-  <si>
-    <t>BOP - Credits - Capital account: transfers - Other sectors than General government</t>
-  </si>
-  <si>
-    <t>BOP - Credits - Secondary income - Other sectors than General government</t>
-  </si>
-  <si>
-    <t>BOP - Credits - Capital account: transfers - General government</t>
-  </si>
-  <si>
-    <t>BOP - Credits - Secondary income - General government</t>
-  </si>
-  <si>
-    <t>BOP - Credits - Capital account: transfers; of which: involving the EU institutions - General government</t>
-  </si>
-  <si>
-    <t>BOP - Debits - Capital account: gross acquisitions/disposal of nonproduced nonfinancial assets - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Debits - Secondary income: of which: workers' remittances - Other sectors than General government</t>
-  </si>
-  <si>
-    <t>BOP - Debits - Capital account: transfers - Other sectors than General government</t>
-  </si>
-  <si>
-    <t>BOP - Debits - Secondary income - Other sectors than General government</t>
-  </si>
-  <si>
-    <t>BOP - Debits - Capital account: transfers - General government</t>
-  </si>
-  <si>
-    <t>BOP - Debits - Secondary income - General government</t>
-  </si>
-  <si>
-    <t>BOP - Debits - Capital account: transfers; of which: involving the EU institutions - General government</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1055,632 +366,1048 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:208">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="FM1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="FN1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="FO1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="FP1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="FQ1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="FR1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="FS1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="FT1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="FU1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="FV1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="FW1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="FX1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="FY1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="FZ1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="GA1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="GB1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="GC1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="GD1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="GE1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="GF1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="GG1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="GH1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="GI1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="GJ1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="GK1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="GL1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="GM1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="GN1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="GO1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="GP1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="GQ1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="GR1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="GS1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="GT1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="GU1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="GV1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="GW1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="GX1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="GY1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="GZ1" s="1" t="s">
-        <v>206</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1970-Q1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1970-Q2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1970-Q3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1970-Q4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1971-Q1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1971-Q2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1971-Q3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1971-Q4</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1972-Q1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1972-Q2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1972-Q3</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1972-Q4</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1973-Q1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1973-Q2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>1973-Q3</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>1973-Q4</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>1974-Q1</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>1974-Q2</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>1974-Q3</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>1974-Q4</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>1975-Q1</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>1975-Q2</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>1975-Q3</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1975-Q4</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>1976-Q1</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>1976-Q2</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>1976-Q3</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>1976-Q4</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>1977-Q1</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>1977-Q2</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>1977-Q3</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>1977-Q4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>1978-Q1</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>1978-Q2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>1978-Q3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>1978-Q4</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>1979-Q1</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>1979-Q2</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>1979-Q3</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>1979-Q4</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>1980-Q1</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>1980-Q2</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>1980-Q3</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>1980-Q4</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>1981-Q2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>1981-Q3</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>1981-Q4</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>1982-Q1</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>1982-Q2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>1982-Q3</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>1982-Q4</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>1983-Q1</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>1983-Q2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>1983-Q3</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>1983-Q4</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>1984-Q1</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>1984-Q2</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>1984-Q3</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>1984-Q4</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>1985-Q1</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>1985-Q2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>1985-Q3</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>1985-Q4</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>1986-Q1</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>1986-Q2</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>1986-Q3</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>1986-Q4</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>1987-Q1</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>1987-Q2</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>1987-Q3</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>1987-Q4</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>1988-Q1</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>1988-Q2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>1988-Q3</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>1988-Q4</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>1989-Q1</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>1989-Q2</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>1989-Q3</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>1989-Q4</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>1990-Q1</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>1990-Q2</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>1990-Q3</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>1990-Q4</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q2</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q3</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q4</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q1</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q2</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q3</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q4</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q1</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q2</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q3</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q4</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q1</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q2</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q3</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q4</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q2</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q3</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q4</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q1</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q2</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q3</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q4</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q2</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q3</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q4</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q1</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q2</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q3</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q4</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q1</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q2</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q3</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q4</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q1</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q2</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q3</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q4</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q1</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q2</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q3</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q4</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q1</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q2</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q3</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q4</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q1</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q2</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q3</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q4</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q1</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q2</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q3</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q4</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q2</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q3</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q4</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q1</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q2</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q3</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q4</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q1</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q2</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q3</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q4</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q1</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q2</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q3</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q4</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q1</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q2</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q3</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q4</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q1</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q2</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q3</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q4</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q1</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q2</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q3</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q4</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q1</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q2</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q3</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q4</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q1</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q2</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q3</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q4</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q1</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q2</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q3</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q4</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q1</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q2</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q3</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q4</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q1</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q2</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q3</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q4</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q1</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q2</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q3</t>
+        </is>
+      </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q4</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q1</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q2</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q3</t>
+        </is>
+      </c>
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q4</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q1</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q2</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q3</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q4</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q1</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q2</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q3</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:208">
-      <c r="A2" s="1" t="s">
-        <v>207</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Balances - Capital account: gross acquisitions/disposal of nonproduced nonfinancial assets - Total economy</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>-2.51564</v>
@@ -1992,7 +1719,7 @@
         <v>-18.238</v>
       </c>
       <c r="DA2" t="n">
-        <v>-47.47600000000001</v>
+        <v>-47.476</v>
       </c>
       <c r="DB2" t="n">
         <v>-91.69</v>
@@ -2004,7 +1731,7 @@
         <v>-72.146</v>
       </c>
       <c r="DE2" t="n">
-        <v>-94.09700000000001</v>
+        <v>-94.09699999999999</v>
       </c>
       <c r="DF2" t="n">
         <v>-50.651</v>
@@ -2031,7 +1758,7 @@
         <v>-40.53</v>
       </c>
       <c r="DN2" t="n">
-        <v>-41.88399999999999</v>
+        <v>-41.884</v>
       </c>
       <c r="DO2" t="n">
         <v>14.351</v>
@@ -2070,7 +1797,7 @@
         <v>31.714</v>
       </c>
       <c r="EA2" t="n">
-        <v>-96.45100000000001</v>
+        <v>-96.45099999999999</v>
       </c>
       <c r="EB2" t="n">
         <v>-25.834</v>
@@ -2097,7 +1824,7 @@
         <v>-95.91500000000001</v>
       </c>
       <c r="EJ2" t="n">
-        <v>46.49100000000001</v>
+        <v>46.491</v>
       </c>
       <c r="EK2" t="n">
         <v>84.61499999999999</v>
@@ -2118,7 +1845,7 @@
         <v>-253.455</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-57.64100000000001</v>
+        <v>-57.641</v>
       </c>
       <c r="ER2" t="n">
         <v>-95.721</v>
@@ -2256,7 +1983,7 @@
         <v>-249.312</v>
       </c>
       <c r="GK2" t="n">
-        <v>-402.7569999999999</v>
+        <v>-402.757</v>
       </c>
       <c r="GL2" t="n">
         <v>-362.971</v>
@@ -2300,11 +2027,13 @@
       <c r="GY2" t="n">
         <v>-540.106</v>
       </c>
-      <c r="GZ2" t="s"/>
+      <c r="GZ2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:208">
-      <c r="A3" s="1" t="s">
-        <v>208</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Balances - Secondary income: of which: workers' remittances - Other sectors than General government</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>37.18271</v>
@@ -2613,7 +2342,7 @@
         <v>-73.279</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-80.52600000000001</v>
+        <v>-80.526</v>
       </c>
       <c r="DA3" t="n">
         <v>-110.202</v>
@@ -2622,7 +2351,7 @@
         <v>-94.499</v>
       </c>
       <c r="DC3" t="n">
-        <v>-83.61399999999999</v>
+        <v>-83.614</v>
       </c>
       <c r="DD3" t="n">
         <v>-105.922</v>
@@ -2631,13 +2360,13 @@
         <v>-124.346</v>
       </c>
       <c r="DF3" t="n">
-        <v>-83.48700000000001</v>
+        <v>-83.48699999999999</v>
       </c>
       <c r="DG3" t="n">
         <v>-68.642</v>
       </c>
       <c r="DH3" t="n">
-        <v>-72.90899999999999</v>
+        <v>-72.90900000000001</v>
       </c>
       <c r="DI3" t="n">
         <v>-153.92</v>
@@ -2715,7 +2444,7 @@
         <v>-623.557</v>
       </c>
       <c r="EH3" t="n">
-        <v>-417.4930000000001</v>
+        <v>-417.493</v>
       </c>
       <c r="EI3" t="n">
         <v>-531.0599999999999</v>
@@ -2733,7 +2462,7 @@
         <v>-806.165</v>
       </c>
       <c r="EN3" t="n">
-        <v>-873.5110000000001</v>
+        <v>-873.511</v>
       </c>
       <c r="EO3" t="n">
         <v>-1094.776</v>
@@ -2924,11 +2653,13 @@
       <c r="GY3" t="n">
         <v>-1770.158</v>
       </c>
-      <c r="GZ3" t="s"/>
+      <c r="GZ3" t="inlineStr"/>
     </row>
-    <row r="4" spans="1:208">
-      <c r="A4" s="1" t="s">
-        <v>209</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Balances - Capital account: transfers - Other sectors than General government</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -3252,7 +2983,7 @@
         <v>-8.263</v>
       </c>
       <c r="DE4" t="n">
-        <v>-7.747000000000001</v>
+        <v>-7.747</v>
       </c>
       <c r="DF4" t="n">
         <v>-18.754</v>
@@ -3300,13 +3031,13 @@
         <v>6.846</v>
       </c>
       <c r="DU4" t="n">
-        <v>49.68600000000001</v>
+        <v>49.686</v>
       </c>
       <c r="DV4" t="n">
-        <v>87.37100000000001</v>
+        <v>87.371</v>
       </c>
       <c r="DW4" t="n">
-        <v>-90.18299999999999</v>
+        <v>-90.18300000000001</v>
       </c>
       <c r="DX4" t="n">
         <v>-26.962</v>
@@ -3318,7 +3049,7 @@
         <v>144.158</v>
       </c>
       <c r="EA4" t="n">
-        <v>5.928999999999999</v>
+        <v>5.929</v>
       </c>
       <c r="EB4" t="n">
         <v>0.252</v>
@@ -3396,13 +3127,13 @@
         <v>0</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0.07200000000000001</v>
+        <v>-0.07199999999999999</v>
       </c>
       <c r="FB4" t="n">
         <v>0</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.437</v>
       </c>
       <c r="FD4" t="n">
         <v>0.07099999999999999</v>
@@ -3420,7 +3151,7 @@
         <v>-3.443</v>
       </c>
       <c r="FI4" t="n">
-        <v>-92.51100000000001</v>
+        <v>-92.511</v>
       </c>
       <c r="FJ4" t="n">
         <v>-15.934</v>
@@ -3507,10 +3238,10 @@
         <v>-47.924</v>
       </c>
       <c r="GL4" t="n">
-        <v>-5.111000000000001</v>
+        <v>-5.111</v>
       </c>
       <c r="GM4" t="n">
-        <v>-5.383999999999999</v>
+        <v>-5.384</v>
       </c>
       <c r="GN4" t="n">
         <v>-4.601</v>
@@ -3525,7 +3256,7 @@
         <v>-10.544</v>
       </c>
       <c r="GR4" t="n">
-        <v>-6.667999999999999</v>
+        <v>-6.668</v>
       </c>
       <c r="GS4" t="n">
         <v>-519.191</v>
@@ -3548,11 +3279,13 @@
       <c r="GY4" t="n">
         <v>-10.179</v>
       </c>
-      <c r="GZ4" t="s"/>
+      <c r="GZ4" t="inlineStr"/>
     </row>
-    <row r="5" spans="1:208">
-      <c r="A5" s="1" t="s">
-        <v>210</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Balances - Secondary income - Other sectors than General government</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>38.10587</v>
@@ -4092,7 +3825,7 @@
         <v>-930.857</v>
       </c>
       <c r="FY5" t="n">
-        <v>-651.1419999999999</v>
+        <v>-651.1420000000001</v>
       </c>
       <c r="FZ5" t="n">
         <v>-504.781</v>
@@ -4101,19 +3834,19 @@
         <v>-621.616</v>
       </c>
       <c r="GB5" t="n">
-        <v>-879.6080000000001</v>
+        <v>-879.6079999999999</v>
       </c>
       <c r="GC5" t="n">
         <v>-663.177</v>
       </c>
       <c r="GD5" t="n">
-        <v>-609.7919999999999</v>
+        <v>-609.792</v>
       </c>
       <c r="GE5" t="n">
         <v>-614.694</v>
       </c>
       <c r="GF5" t="n">
-        <v>-774.2510000000001</v>
+        <v>-774.251</v>
       </c>
       <c r="GG5" t="n">
         <v>-305.801</v>
@@ -4134,7 +3867,7 @@
         <v>-386.896</v>
       </c>
       <c r="GM5" t="n">
-        <v>-585.7180000000001</v>
+        <v>-585.718</v>
       </c>
       <c r="GN5" t="n">
         <v>-887.908</v>
@@ -4170,13 +3903,15 @@
         <v>-1166.927</v>
       </c>
       <c r="GY5" t="n">
-        <v>-973.7860000000001</v>
-      </c>
-      <c r="GZ5" t="s"/>
+        <v>-973.7859999999999</v>
+      </c>
+      <c r="GZ5" t="inlineStr"/>
     </row>
-    <row r="6" spans="1:208">
-      <c r="A6" s="1" t="s">
-        <v>211</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Balances - Capital account: transfers - General government</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>1.54942</v>
@@ -4796,11 +4531,13 @@
       <c r="GY6" t="n">
         <v>87</v>
       </c>
-      <c r="GZ6" t="s"/>
+      <c r="GZ6" t="inlineStr"/>
     </row>
-    <row r="7" spans="1:208">
-      <c r="A7" s="1" t="s">
-        <v>212</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Balances - Secondary income - General government</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>-64.09999999999999</v>
@@ -5283,7 +5020,7 @@
         <v>-3675.106</v>
       </c>
       <c r="FF7" t="n">
-        <v>-5806.914000000001</v>
+        <v>-5806.914</v>
       </c>
       <c r="FG7" t="n">
         <v>-1650.562</v>
@@ -5319,7 +5056,7 @@
         <v>-2275.508</v>
       </c>
       <c r="FR7" t="n">
-        <v>-7118.911999999999</v>
+        <v>-7118.912</v>
       </c>
       <c r="FS7" t="n">
         <v>-2803.13</v>
@@ -5420,11 +5157,13 @@
       <c r="GY7" t="n">
         <v>-2762.586</v>
       </c>
-      <c r="GZ7" t="s"/>
+      <c r="GZ7" t="inlineStr"/>
     </row>
-    <row r="8" spans="1:208">
-      <c r="A8" s="1" t="s">
-        <v>213</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Balances - Capital account: transfers; of which: involving the EU institutions - General government</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>2.58228</v>
@@ -6044,11 +5783,13 @@
       <c r="GY8" t="n">
         <v>418</v>
       </c>
-      <c r="GZ8" t="s"/>
+      <c r="GZ8" t="inlineStr"/>
     </row>
-    <row r="9" spans="1:208">
-      <c r="A9" s="1" t="s">
-        <v>214</v>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Credits - Capital account: gross acquisitions/disposal of nonproduced nonfinancial assets - Total economy</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>0.23975</v>
@@ -6354,7 +6095,7 @@
         <v>169.004</v>
       </c>
       <c r="CY9" t="n">
-        <v>53.07100000000001</v>
+        <v>53.071</v>
       </c>
       <c r="CZ9" t="n">
         <v>61.831</v>
@@ -6387,7 +6128,7 @@
         <v>95.809</v>
       </c>
       <c r="DJ9" t="n">
-        <v>78.47800000000001</v>
+        <v>78.47799999999999</v>
       </c>
       <c r="DK9" t="n">
         <v>74.73999999999999</v>
@@ -6399,7 +6140,7 @@
         <v>41.706</v>
       </c>
       <c r="DN9" t="n">
-        <v>72.99600000000001</v>
+        <v>72.996</v>
       </c>
       <c r="DO9" t="n">
         <v>144.851</v>
@@ -6510,7 +6251,7 @@
         <v>19.925</v>
       </c>
       <c r="EY9" t="n">
-        <v>73.53699999999999</v>
+        <v>73.53700000000001</v>
       </c>
       <c r="EZ9" t="n">
         <v>116.361</v>
@@ -6567,7 +6308,7 @@
         <v>3268.954</v>
       </c>
       <c r="FR9" t="n">
-        <v>429.6969999999999</v>
+        <v>429.697</v>
       </c>
       <c r="FS9" t="n">
         <v>186.319</v>
@@ -6657,10 +6398,10 @@
         <v>545.927</v>
       </c>
       <c r="GV9" t="n">
-        <v>427.5719999999999</v>
+        <v>427.572</v>
       </c>
       <c r="GW9" t="n">
-        <v>811.6080000000001</v>
+        <v>811.6079999999999</v>
       </c>
       <c r="GX9" t="n">
         <v>254.922</v>
@@ -6668,11 +6409,13 @@
       <c r="GY9" t="n">
         <v>297.65</v>
       </c>
-      <c r="GZ9" t="s"/>
+      <c r="GZ9" t="inlineStr"/>
     </row>
-    <row r="10" spans="1:208">
-      <c r="A10" s="1" t="s">
-        <v>215</v>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Credits - Secondary income: of which: workers' remittances - Other sectors than General government</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>37.18271</v>
@@ -7292,11 +7035,13 @@
       <c r="GY10" t="n">
         <v>116.181</v>
       </c>
-      <c r="GZ10" t="s"/>
+      <c r="GZ10" t="inlineStr"/>
     </row>
-    <row r="11" spans="1:208">
-      <c r="A11" s="1" t="s">
-        <v>216</v>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Credits - Capital account: transfers - Other sectors than General government</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -7614,7 +7359,7 @@
         <v>11.878</v>
       </c>
       <c r="DC11" t="n">
-        <v>9.812999999999999</v>
+        <v>9.813000000000001</v>
       </c>
       <c r="DD11" t="n">
         <v>12.395</v>
@@ -7674,10 +7419,10 @@
         <v>139.511</v>
       </c>
       <c r="DW11" t="n">
-        <v>68.22399999999999</v>
+        <v>68.224</v>
       </c>
       <c r="DX11" t="n">
-        <v>58.53100000000001</v>
+        <v>58.531</v>
       </c>
       <c r="DY11" t="n">
         <v>152.945</v>
@@ -7716,7 +7461,7 @@
         <v>90.699</v>
       </c>
       <c r="EK11" t="n">
-        <v>59.63399999999999</v>
+        <v>59.634</v>
       </c>
       <c r="EL11" t="n">
         <v>27.798</v>
@@ -7728,7 +7473,7 @@
         <v>18.726</v>
       </c>
       <c r="EO11" t="n">
-        <v>53.96100000000001</v>
+        <v>53.961</v>
       </c>
       <c r="EP11" t="n">
         <v>143.316</v>
@@ -7779,7 +7524,7 @@
         <v>3.949</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="FG11" t="n">
         <v>0.081</v>
@@ -7791,13 +7536,13 @@
         <v>1.185</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="FM11" t="n">
         <v>0.015</v>
@@ -7815,7 +7560,7 @@
         <v>0.875</v>
       </c>
       <c r="FR11" t="n">
-        <v>4.696000000000001</v>
+        <v>4.696</v>
       </c>
       <c r="FS11" t="n">
         <v>0.077</v>
@@ -7836,7 +7581,7 @@
         <v>0.014</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.05599999999999999</v>
+        <v>0.056</v>
       </c>
       <c r="FZ11" t="n">
         <v>0.003</v>
@@ -7851,7 +7596,7 @@
         <v>0.064</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.009000000000000001</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="GE11" t="n">
         <v>0.07000000000000001</v>
@@ -7878,7 +7623,7 @@
         <v>0.053</v>
       </c>
       <c r="GM11" t="n">
-        <v>0.009000000000000001</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="GN11" t="n">
         <v>0</v>
@@ -7911,16 +7656,18 @@
         <v>0.04</v>
       </c>
       <c r="GX11" t="n">
-        <v>0.009000000000000001</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="GY11" t="n">
         <v>0</v>
       </c>
-      <c r="GZ11" t="s"/>
+      <c r="GZ11" t="inlineStr"/>
     </row>
-    <row r="12" spans="1:208">
-      <c r="A12" s="1" t="s">
-        <v>217</v>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Credits - Secondary income - Other sectors than General government</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>57.16926</v>
@@ -8540,11 +8287,13 @@
       <c r="GY12" t="n">
         <v>3144.505</v>
       </c>
-      <c r="GZ12" t="s"/>
+      <c r="GZ12" t="inlineStr"/>
     </row>
-    <row r="13" spans="1:208">
-      <c r="A13" s="1" t="s">
-        <v>218</v>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Credits - Capital account: transfers - General government</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>4.13166</v>
@@ -9164,11 +8913,13 @@
       <c r="GY13" t="n">
         <v>418</v>
       </c>
-      <c r="GZ13" t="s"/>
+      <c r="GZ13" t="inlineStr"/>
     </row>
-    <row r="14" spans="1:208">
-      <c r="A14" s="1" t="s">
-        <v>219</v>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Credits - Secondary income - General government</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>13.4</v>
@@ -9501,7 +9252,7 @@
         <v>476.267</v>
       </c>
       <c r="DH14" t="n">
-        <v>584.7869999999999</v>
+        <v>584.787</v>
       </c>
       <c r="DI14" t="n">
         <v>513.225</v>
@@ -9516,7 +9267,7 @@
         <v>687.545</v>
       </c>
       <c r="DM14" t="n">
-        <v>661.0939999999999</v>
+        <v>661.0940000000001</v>
       </c>
       <c r="DN14" t="n">
         <v>383.83</v>
@@ -9645,7 +9396,7 @@
         <v>1271.899</v>
       </c>
       <c r="FD14" t="n">
-        <v>858.0319999999999</v>
+        <v>858.032</v>
       </c>
       <c r="FE14" t="n">
         <v>1017.808</v>
@@ -9669,7 +9420,7 @@
         <v>1255.274</v>
       </c>
       <c r="FL14" t="n">
-        <v>668.3589999999999</v>
+        <v>668.359</v>
       </c>
       <c r="FM14" t="n">
         <v>1128.306</v>
@@ -9693,13 +9444,13 @@
         <v>1431.976</v>
       </c>
       <c r="FT14" t="n">
-        <v>946.3969999999999</v>
+        <v>946.397</v>
       </c>
       <c r="FU14" t="n">
         <v>1070.285</v>
       </c>
       <c r="FV14" t="n">
-        <v>708.6560000000001</v>
+        <v>708.6559999999999</v>
       </c>
       <c r="FW14" t="n">
         <v>1624.11</v>
@@ -9717,7 +9468,7 @@
         <v>2009.045</v>
       </c>
       <c r="GB14" t="n">
-        <v>939.0989999999999</v>
+        <v>939.099</v>
       </c>
       <c r="GC14" t="n">
         <v>1209.652</v>
@@ -9753,7 +9504,7 @@
         <v>1602.879</v>
       </c>
       <c r="GN14" t="n">
-        <v>974.1610000000001</v>
+        <v>974.1609999999999</v>
       </c>
       <c r="GO14" t="n">
         <v>1092.644</v>
@@ -9783,16 +9534,18 @@
         <v>1658.983</v>
       </c>
       <c r="GX14" t="n">
-        <v>910.0319999999999</v>
+        <v>910.032</v>
       </c>
       <c r="GY14" t="n">
         <v>1451.037</v>
       </c>
-      <c r="GZ14" t="s"/>
+      <c r="GZ14" t="inlineStr"/>
     </row>
-    <row r="15" spans="1:208">
-      <c r="A15" s="1" t="s">
-        <v>220</v>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Credits - Capital account: transfers; of which: involving the EU institutions - General government</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>4.13166</v>
@@ -10412,11 +10165,13 @@
       <c r="GY15" t="n">
         <v>418</v>
       </c>
-      <c r="GZ15" t="s"/>
+      <c r="GZ15" t="inlineStr"/>
     </row>
-    <row r="16" spans="1:208">
-      <c r="A16" s="1" t="s">
-        <v>221</v>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Debits - Capital account: gross acquisitions/disposal of nonproduced nonfinancial assets - Total economy</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>2.75538</v>
@@ -10773,7 +10528,7 @@
         <v>130.5</v>
       </c>
       <c r="DP16" t="n">
-        <v>95.40299999999999</v>
+        <v>95.40300000000001</v>
       </c>
       <c r="DQ16" t="n">
         <v>117.276</v>
@@ -10956,7 +10711,7 @@
         <v>358.496</v>
       </c>
       <c r="FY16" t="n">
-        <v>949.2760000000001</v>
+        <v>949.276</v>
       </c>
       <c r="FZ16" t="n">
         <v>718.498</v>
@@ -11025,7 +10780,7 @@
         <v>497.848</v>
       </c>
       <c r="GV16" t="n">
-        <v>811.4780000000001</v>
+        <v>811.478</v>
       </c>
       <c r="GW16" t="n">
         <v>869.3680000000001</v>
@@ -11036,11 +10791,13 @@
       <c r="GY16" t="n">
         <v>837.7569999999999</v>
       </c>
-      <c r="GZ16" t="s"/>
+      <c r="GZ16" t="inlineStr"/>
     </row>
-    <row r="17" spans="1:208">
-      <c r="A17" s="1" t="s">
-        <v>222</v>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Debits - Secondary income: of which: workers' remittances - Other sectors than General government</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -11439,7 +11196,7 @@
         <v>531.922</v>
       </c>
       <c r="ED17" t="n">
-        <v>439.4880000000001</v>
+        <v>439.488</v>
       </c>
       <c r="EE17" t="n">
         <v>487.037</v>
@@ -11469,7 +11226,7 @@
         <v>944.6849999999999</v>
       </c>
       <c r="EN17" t="n">
-        <v>990.9810000000001</v>
+        <v>990.981</v>
       </c>
       <c r="EO17" t="n">
         <v>1219.146</v>
@@ -11660,11 +11417,13 @@
       <c r="GY17" t="n">
         <v>1886.339</v>
       </c>
-      <c r="GZ17" t="s"/>
+      <c r="GZ17" t="inlineStr"/>
     </row>
-    <row r="18" spans="1:208">
-      <c r="A18" s="1" t="s">
-        <v>223</v>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Debits - Capital account: transfers - Other sectors than General government</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -11967,7 +11726,7 @@
         <v>25.30637</v>
       </c>
       <c r="CX18" t="n">
-        <v>52.16399999999999</v>
+        <v>52.164</v>
       </c>
       <c r="CY18" t="n">
         <v>22.208</v>
@@ -12048,7 +11807,7 @@
         <v>85.492</v>
       </c>
       <c r="DY18" t="n">
-        <v>59.35100000000001</v>
+        <v>59.351</v>
       </c>
       <c r="DZ18" t="n">
         <v>40.73</v>
@@ -12060,7 +11819,7 @@
         <v>31.433</v>
       </c>
       <c r="EC18" t="n">
-        <v>60.16399999999999</v>
+        <v>60.164</v>
       </c>
       <c r="ED18" t="n">
         <v>31.515</v>
@@ -12069,7 +11828,7 @@
         <v>46.346</v>
       </c>
       <c r="EF18" t="n">
-        <v>84.63799999999999</v>
+        <v>84.63800000000001</v>
       </c>
       <c r="EG18" t="n">
         <v>32.092</v>
@@ -12108,7 +11867,7 @@
         <v>65.712</v>
       </c>
       <c r="ES18" t="n">
-        <v>75.98100000000001</v>
+        <v>75.98099999999999</v>
       </c>
       <c r="ET18" t="n">
         <v>56</v>
@@ -12261,7 +12020,7 @@
         <v>13.219</v>
       </c>
       <c r="GR18" t="n">
-        <v>6.667999999999999</v>
+        <v>6.668</v>
       </c>
       <c r="GS18" t="n">
         <v>519.191</v>
@@ -12284,11 +12043,13 @@
       <c r="GY18" t="n">
         <v>10.179</v>
       </c>
-      <c r="GZ18" t="s"/>
+      <c r="GZ18" t="inlineStr"/>
     </row>
-    <row r="19" spans="1:208">
-      <c r="A19" s="1" t="s">
-        <v>224</v>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Debits - Secondary income - Other sectors than General government</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>19.06339</v>
@@ -12908,11 +12669,13 @@
       <c r="GY19" t="n">
         <v>4118.291</v>
       </c>
-      <c r="GZ19" t="s"/>
+      <c r="GZ19" t="inlineStr"/>
     </row>
-    <row r="20" spans="1:208">
-      <c r="A20" s="1" t="s">
-        <v>225</v>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Debits - Capital account: transfers - General government</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>2.58224</v>
@@ -13532,11 +13295,13 @@
       <c r="GY20" t="n">
         <v>331</v>
       </c>
-      <c r="GZ20" t="s"/>
+      <c r="GZ20" t="inlineStr"/>
     </row>
-    <row r="21" spans="1:208">
-      <c r="A21" s="1" t="s">
-        <v>226</v>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Debits - Secondary income - General government</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>77.5</v>
@@ -13995,7 +13760,7 @@
         <v>5155</v>
       </c>
       <c r="EX21" t="n">
-        <v>5747.878000000001</v>
+        <v>5747.878</v>
       </c>
       <c r="EY21" t="n">
         <v>3052.689</v>
@@ -14016,7 +13781,7 @@
         <v>3090.053</v>
       </c>
       <c r="FE21" t="n">
-        <v>4692.914000000001</v>
+        <v>4692.914</v>
       </c>
       <c r="FF21" t="n">
         <v>6165.778</v>
@@ -14031,7 +13796,7 @@
         <v>3851.344</v>
       </c>
       <c r="FJ21" t="n">
-        <v>6413.378000000001</v>
+        <v>6413.378</v>
       </c>
       <c r="FK21" t="n">
         <v>2710.18</v>
@@ -14061,13 +13826,13 @@
         <v>4235.106</v>
       </c>
       <c r="FT21" t="n">
-        <v>4918.539000000001</v>
+        <v>4918.539</v>
       </c>
       <c r="FU21" t="n">
         <v>2657.034</v>
       </c>
       <c r="FV21" t="n">
-        <v>7044.156999999999</v>
+        <v>7044.157</v>
       </c>
       <c r="FW21" t="n">
         <v>4216.005</v>
@@ -14100,7 +13865,7 @@
         <v>4202.755</v>
       </c>
       <c r="GG21" t="n">
-        <v>5415.486999999999</v>
+        <v>5415.487</v>
       </c>
       <c r="GH21" t="n">
         <v>4421.595</v>
@@ -14115,7 +13880,7 @@
         <v>3403.416</v>
       </c>
       <c r="GL21" t="n">
-        <v>5545.558000000001</v>
+        <v>5545.558</v>
       </c>
       <c r="GM21" t="n">
         <v>4005.384</v>
@@ -14133,13 +13898,13 @@
         <v>3685.623</v>
       </c>
       <c r="GR21" t="n">
-        <v>4969.382000000001</v>
+        <v>4969.382</v>
       </c>
       <c r="GS21" t="n">
         <v>3581.619</v>
       </c>
       <c r="GT21" t="n">
-        <v>5938.236999999999</v>
+        <v>5938.237</v>
       </c>
       <c r="GU21" t="n">
         <v>5132.049</v>
@@ -14156,11 +13921,13 @@
       <c r="GY21" t="n">
         <v>4213.623</v>
       </c>
-      <c r="GZ21" t="s"/>
+      <c r="GZ21" t="inlineStr"/>
     </row>
-    <row r="22" spans="1:208">
-      <c r="A22" s="1" t="s">
-        <v>227</v>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Debits - Capital account: transfers; of which: involving the EU institutions - General government</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>1.54937</v>
@@ -14780,7 +14547,7 @@
       <c r="GY22" t="n">
         <v>0</v>
       </c>
-      <c r="GZ22" t="s"/>
+      <c r="GZ22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/136/BOI/Other primary income and secondary income and capital account_historical.xlsx
+++ b/data/136/BOI/Other primary income and secondary income and capital account_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GZ22"/>
+  <dimension ref="A1:HA22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1402,6 +1402,11 @@
           <t>2021-Q3</t>
         </is>
       </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2010,24 +2015,29 @@
         <v>-1151.82</v>
       </c>
       <c r="GT2" t="n">
-        <v>-712.748</v>
+        <v>-748.849</v>
       </c>
       <c r="GU2" t="n">
-        <v>48.08</v>
+        <v>1.232</v>
       </c>
       <c r="GV2" t="n">
-        <v>-383.906</v>
+        <v>-440.276</v>
       </c>
       <c r="GW2" t="n">
-        <v>-57.76</v>
+        <v>-190.181</v>
       </c>
       <c r="GX2" t="n">
-        <v>-514.61</v>
+        <v>-1153.361</v>
       </c>
       <c r="GY2" t="n">
-        <v>-540.106</v>
-      </c>
-      <c r="GZ2" t="inlineStr"/>
+        <v>-749.3390000000001</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>-574.674</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>-1320.217</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2648,12 +2658,17 @@
         <v>-1771.982</v>
       </c>
       <c r="GX3" t="n">
-        <v>-1639.101</v>
+        <v>-1659.1</v>
       </c>
       <c r="GY3" t="n">
-        <v>-1770.158</v>
-      </c>
-      <c r="GZ3" t="inlineStr"/>
+        <v>-1771.45</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>-1951.743</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>-1893.148</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3262,24 +3277,29 @@
         <v>-519.191</v>
       </c>
       <c r="GT4" t="n">
-        <v>-511.009</v>
+        <v>-510.997</v>
       </c>
       <c r="GU4" t="n">
-        <v>-5.87</v>
+        <v>-5.849</v>
       </c>
       <c r="GV4" t="n">
-        <v>-3.809</v>
+        <v>-3.797</v>
       </c>
       <c r="GW4" t="n">
-        <v>-17.971</v>
+        <v>-16.866</v>
       </c>
       <c r="GX4" t="n">
-        <v>-729.002</v>
+        <v>-730.686</v>
       </c>
       <c r="GY4" t="n">
-        <v>-10.179</v>
-      </c>
-      <c r="GZ4" t="inlineStr"/>
+        <v>-10.231</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>-8.507</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>-22.84</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3888,24 +3908,29 @@
         <v>-864.347</v>
       </c>
       <c r="GT5" t="n">
-        <v>-548.357</v>
+        <v>-561.546</v>
       </c>
       <c r="GU5" t="n">
-        <v>-550.2190000000001</v>
+        <v>-543.974</v>
       </c>
       <c r="GV5" t="n">
-        <v>-1161.292</v>
+        <v>-1172.503</v>
       </c>
       <c r="GW5" t="n">
-        <v>-877.197</v>
+        <v>-744.431</v>
       </c>
       <c r="GX5" t="n">
-        <v>-1166.927</v>
+        <v>-1117.749</v>
       </c>
       <c r="GY5" t="n">
-        <v>-973.7859999999999</v>
-      </c>
-      <c r="GZ5" t="inlineStr"/>
+        <v>-917.6079999999999</v>
+      </c>
+      <c r="GZ5" t="n">
+        <v>-1296.836</v>
+      </c>
+      <c r="HA5" t="n">
+        <v>1205.711</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -4514,24 +4539,29 @@
         <v>971</v>
       </c>
       <c r="GT6" t="n">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="GU6" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="GV6" t="n">
-        <v>133.97</v>
+        <v>462.97</v>
       </c>
       <c r="GW6" t="n">
-        <v>717</v>
+        <v>385</v>
       </c>
       <c r="GX6" t="n">
-        <v>-131</v>
+        <v>135</v>
       </c>
       <c r="GY6" t="n">
-        <v>87</v>
-      </c>
-      <c r="GZ6" t="inlineStr"/>
+        <v>673</v>
+      </c>
+      <c r="GZ6" t="n">
+        <v>830</v>
+      </c>
+      <c r="HA6" t="n">
+        <v>645</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -5128,36 +5158,41 @@
         <v>-4098.98</v>
       </c>
       <c r="GP7" t="n">
-        <v>-6237.568</v>
+        <v>-6248.568</v>
       </c>
       <c r="GQ7" t="n">
-        <v>-1946.72</v>
+        <v>-1957.72</v>
       </c>
       <c r="GR7" t="n">
-        <v>-3855.396</v>
+        <v>-3866.396</v>
       </c>
       <c r="GS7" t="n">
-        <v>-1991.188</v>
+        <v>-2004.188</v>
       </c>
       <c r="GT7" t="n">
-        <v>-5045.441</v>
+        <v>-5040.325</v>
       </c>
       <c r="GU7" t="n">
-        <v>-3743.473</v>
+        <v>-3738.462</v>
       </c>
       <c r="GV7" t="n">
-        <v>-2693.809</v>
+        <v>-2541.176</v>
       </c>
       <c r="GW7" t="n">
-        <v>-4633.397</v>
+        <v>-4761.961</v>
       </c>
       <c r="GX7" t="n">
-        <v>-6060.774</v>
+        <v>-6069.979</v>
       </c>
       <c r="GY7" t="n">
-        <v>-2762.586</v>
-      </c>
-      <c r="GZ7" t="inlineStr"/>
+        <v>-2443.945</v>
+      </c>
+      <c r="GZ7" t="n">
+        <v>-3411.631</v>
+      </c>
+      <c r="HA7" t="n">
+        <v>-5402.05</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -5766,24 +5801,29 @@
         <v>1475</v>
       </c>
       <c r="GT8" t="n">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="GU8" t="n">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="GV8" t="n">
-        <v>337</v>
+        <v>666</v>
       </c>
       <c r="GW8" t="n">
-        <v>1376</v>
+        <v>1049</v>
       </c>
       <c r="GX8" t="n">
-        <v>540</v>
+        <v>751</v>
       </c>
       <c r="GY8" t="n">
-        <v>418</v>
-      </c>
-      <c r="GZ8" t="inlineStr"/>
+        <v>937</v>
+      </c>
+      <c r="GZ8" t="n">
+        <v>1433</v>
+      </c>
+      <c r="HA8" t="n">
+        <v>1221</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -6392,24 +6432,29 @@
         <v>202.463</v>
       </c>
       <c r="GT9" t="n">
-        <v>275.655</v>
+        <v>255.487</v>
       </c>
       <c r="GU9" t="n">
-        <v>545.927</v>
+        <v>519.957</v>
       </c>
       <c r="GV9" t="n">
-        <v>427.572</v>
+        <v>394.623</v>
       </c>
       <c r="GW9" t="n">
-        <v>811.6079999999999</v>
+        <v>784.398</v>
       </c>
       <c r="GX9" t="n">
-        <v>254.922</v>
+        <v>472.38</v>
       </c>
       <c r="GY9" t="n">
-        <v>297.65</v>
-      </c>
-      <c r="GZ9" t="inlineStr"/>
+        <v>813.724</v>
+      </c>
+      <c r="GZ9" t="n">
+        <v>606.713</v>
+      </c>
+      <c r="HA9" t="n">
+        <v>762.424</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -7035,7 +7080,12 @@
       <c r="GY10" t="n">
         <v>116.181</v>
       </c>
-      <c r="GZ10" t="inlineStr"/>
+      <c r="GZ10" t="n">
+        <v>113.275</v>
+      </c>
+      <c r="HA10" t="n">
+        <v>122.023</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -7644,24 +7694,29 @@
         <v>0</v>
       </c>
       <c r="GT11" t="n">
-        <v>0.376</v>
+        <v>0.373</v>
       </c>
       <c r="GU11" t="n">
         <v>0</v>
       </c>
       <c r="GV11" t="n">
-        <v>1.204</v>
+        <v>1.201</v>
       </c>
       <c r="GW11" t="n">
         <v>0.04</v>
       </c>
       <c r="GX11" t="n">
-        <v>0.008999999999999999</v>
+        <v>0</v>
       </c>
       <c r="GY11" t="n">
         <v>0</v>
       </c>
-      <c r="GZ11" t="inlineStr"/>
+      <c r="GZ11" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="HA11" t="n">
+        <v>4.683</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -8270,24 +8325,29 @@
         <v>2948.699</v>
       </c>
       <c r="GT12" t="n">
-        <v>2816.466</v>
+        <v>2767.604</v>
       </c>
       <c r="GU12" t="n">
-        <v>2846.566</v>
+        <v>2742.273</v>
       </c>
       <c r="GV12" t="n">
-        <v>2634.544</v>
+        <v>2595.824</v>
       </c>
       <c r="GW12" t="n">
-        <v>3311.765</v>
+        <v>3216.994</v>
       </c>
       <c r="GX12" t="n">
-        <v>2746.505</v>
+        <v>2752.427</v>
       </c>
       <c r="GY12" t="n">
-        <v>3144.505</v>
-      </c>
-      <c r="GZ12" t="inlineStr"/>
+        <v>3174.377</v>
+      </c>
+      <c r="GZ12" t="n">
+        <v>2867.71</v>
+      </c>
+      <c r="HA12" t="n">
+        <v>5880.447</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -8896,24 +8956,29 @@
         <v>1475</v>
       </c>
       <c r="GT13" t="n">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="GU13" t="n">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="GV13" t="n">
-        <v>337</v>
+        <v>666</v>
       </c>
       <c r="GW13" t="n">
-        <v>1376</v>
+        <v>1049</v>
       </c>
       <c r="GX13" t="n">
-        <v>540</v>
+        <v>751</v>
       </c>
       <c r="GY13" t="n">
-        <v>418</v>
-      </c>
-      <c r="GZ13" t="inlineStr"/>
+        <v>937</v>
+      </c>
+      <c r="GZ13" t="n">
+        <v>1433</v>
+      </c>
+      <c r="HA13" t="n">
+        <v>1221</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -9522,24 +9587,29 @@
         <v>1590.431</v>
       </c>
       <c r="GT14" t="n">
-        <v>892.796</v>
+        <v>888.481</v>
       </c>
       <c r="GU14" t="n">
-        <v>1388.576</v>
+        <v>1384.161</v>
       </c>
       <c r="GV14" t="n">
-        <v>973.069</v>
+        <v>1047.205</v>
       </c>
       <c r="GW14" t="n">
-        <v>1658.983</v>
+        <v>1531.657</v>
       </c>
       <c r="GX14" t="n">
-        <v>910.032</v>
+        <v>951.683</v>
       </c>
       <c r="GY14" t="n">
-        <v>1451.037</v>
-      </c>
-      <c r="GZ14" t="inlineStr"/>
+        <v>1820.523</v>
+      </c>
+      <c r="GZ14" t="n">
+        <v>1226.563</v>
+      </c>
+      <c r="HA14" t="n">
+        <v>1604.508</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -10148,24 +10218,29 @@
         <v>1475</v>
       </c>
       <c r="GT15" t="n">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="GU15" t="n">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="GV15" t="n">
-        <v>337</v>
+        <v>666</v>
       </c>
       <c r="GW15" t="n">
-        <v>1376</v>
+        <v>1049</v>
       </c>
       <c r="GX15" t="n">
-        <v>540</v>
+        <v>751</v>
       </c>
       <c r="GY15" t="n">
-        <v>418</v>
-      </c>
-      <c r="GZ15" t="inlineStr"/>
+        <v>937</v>
+      </c>
+      <c r="GZ15" t="n">
+        <v>1433</v>
+      </c>
+      <c r="HA15" t="n">
+        <v>1221</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -10774,24 +10849,29 @@
         <v>1354.283</v>
       </c>
       <c r="GT16" t="n">
-        <v>988.403</v>
+        <v>1004.336</v>
       </c>
       <c r="GU16" t="n">
-        <v>497.848</v>
+        <v>518.726</v>
       </c>
       <c r="GV16" t="n">
-        <v>811.478</v>
+        <v>834.899</v>
       </c>
       <c r="GW16" t="n">
-        <v>869.3680000000001</v>
+        <v>974.579</v>
       </c>
       <c r="GX16" t="n">
-        <v>769.533</v>
+        <v>1625.741</v>
       </c>
       <c r="GY16" t="n">
-        <v>837.7569999999999</v>
-      </c>
-      <c r="GZ16" t="inlineStr"/>
+        <v>1563.063</v>
+      </c>
+      <c r="GZ16" t="n">
+        <v>1181.388</v>
+      </c>
+      <c r="HA16" t="n">
+        <v>2082.641</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -11412,12 +11492,17 @@
         <v>1900.875</v>
       </c>
       <c r="GX17" t="n">
-        <v>1748.645</v>
+        <v>1768.644</v>
       </c>
       <c r="GY17" t="n">
-        <v>1886.339</v>
-      </c>
-      <c r="GZ17" t="inlineStr"/>
+        <v>1887.631</v>
+      </c>
+      <c r="GZ17" t="n">
+        <v>2065.018</v>
+      </c>
+      <c r="HA17" t="n">
+        <v>2015.171</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -12026,24 +12111,29 @@
         <v>519.191</v>
       </c>
       <c r="GT18" t="n">
-        <v>511.385</v>
+        <v>511.37</v>
       </c>
       <c r="GU18" t="n">
-        <v>5.87</v>
+        <v>5.849</v>
       </c>
       <c r="GV18" t="n">
-        <v>5.012</v>
+        <v>4.998</v>
       </c>
       <c r="GW18" t="n">
-        <v>18.011</v>
+        <v>16.906</v>
       </c>
       <c r="GX18" t="n">
-        <v>729.01</v>
+        <v>730.686</v>
       </c>
       <c r="GY18" t="n">
-        <v>10.179</v>
-      </c>
-      <c r="GZ18" t="inlineStr"/>
+        <v>10.231</v>
+      </c>
+      <c r="GZ18" t="n">
+        <v>8.615</v>
+      </c>
+      <c r="HA18" t="n">
+        <v>27.523</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -12652,24 +12742,29 @@
         <v>3813.045</v>
       </c>
       <c r="GT19" t="n">
-        <v>3364.823</v>
+        <v>3329.15</v>
       </c>
       <c r="GU19" t="n">
-        <v>3396.784</v>
+        <v>3286.247</v>
       </c>
       <c r="GV19" t="n">
-        <v>3795.836</v>
+        <v>3768.327</v>
       </c>
       <c r="GW19" t="n">
-        <v>4188.963</v>
+        <v>3961.426</v>
       </c>
       <c r="GX19" t="n">
-        <v>3913.432</v>
+        <v>3870.175</v>
       </c>
       <c r="GY19" t="n">
-        <v>4118.291</v>
-      </c>
-      <c r="GZ19" t="inlineStr"/>
+        <v>4091.986</v>
+      </c>
+      <c r="GZ19" t="n">
+        <v>4164.546</v>
+      </c>
+      <c r="HA19" t="n">
+        <v>4674.736</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -13287,15 +13382,20 @@
         <v>203.03</v>
       </c>
       <c r="GW20" t="n">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="GX20" t="n">
-        <v>671</v>
+        <v>616</v>
       </c>
       <c r="GY20" t="n">
-        <v>331</v>
-      </c>
-      <c r="GZ20" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="GZ20" t="n">
+        <v>603</v>
+      </c>
+      <c r="HA20" t="n">
+        <v>576</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -13892,36 +13992,41 @@
         <v>5191.624</v>
       </c>
       <c r="GP21" t="n">
-        <v>7019.806</v>
+        <v>7030.806</v>
       </c>
       <c r="GQ21" t="n">
-        <v>3685.623</v>
+        <v>3696.623</v>
       </c>
       <c r="GR21" t="n">
-        <v>4969.382</v>
+        <v>4980.382</v>
       </c>
       <c r="GS21" t="n">
-        <v>3581.619</v>
+        <v>3594.619</v>
       </c>
       <c r="GT21" t="n">
-        <v>5938.237</v>
+        <v>5928.806</v>
       </c>
       <c r="GU21" t="n">
-        <v>5132.049</v>
+        <v>5122.623</v>
       </c>
       <c r="GV21" t="n">
-        <v>3666.878</v>
+        <v>3588.382</v>
       </c>
       <c r="GW21" t="n">
-        <v>6292.38</v>
+        <v>6293.619</v>
       </c>
       <c r="GX21" t="n">
-        <v>6970.806</v>
+        <v>7021.663</v>
       </c>
       <c r="GY21" t="n">
-        <v>4213.623</v>
-      </c>
-      <c r="GZ21" t="inlineStr"/>
+        <v>4264.468</v>
+      </c>
+      <c r="GZ21" t="n">
+        <v>4638.193</v>
+      </c>
+      <c r="HA21" t="n">
+        <v>7006.558</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -14547,7 +14652,12 @@
       <c r="GY22" t="n">
         <v>0</v>
       </c>
-      <c r="GZ22" t="inlineStr"/>
+      <c r="GZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA22" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
